--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pspn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pspn</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.78379999668461</v>
+        <v>1.166539666666667</v>
       </c>
       <c r="H2">
-        <v>1.78379999668461</v>
+        <v>3.499619</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3218288009004096</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.336041805078951</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.86459277226514</v>
+        <v>3.87073</v>
       </c>
       <c r="N2">
-        <v>3.86459277226514</v>
+        <v>7.74146</v>
       </c>
       <c r="O2">
-        <v>0.4693725625640518</v>
+        <v>0.4357780537476825</v>
       </c>
       <c r="P2">
-        <v>0.4693725625640518</v>
+        <v>0.3549718160138305</v>
       </c>
       <c r="Q2">
-        <v>6.893660574353925</v>
+        <v>4.515360083956667</v>
       </c>
       <c r="R2">
-        <v>6.893660574353925</v>
+        <v>27.09216050374</v>
       </c>
       <c r="S2">
-        <v>0.4693725625640518</v>
+        <v>0.1402459284963309</v>
       </c>
       <c r="T2">
-        <v>0.4693725625640518</v>
+        <v>0.1192853698054409</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.78379999668461</v>
+        <v>1.166539666666667</v>
       </c>
       <c r="H3">
-        <v>1.78379999668461</v>
+        <v>3.499619</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3218288009004096</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.336041805078951</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12909862672013</v>
+        <v>3.384385</v>
       </c>
       <c r="N3">
-        <v>3.12909862672013</v>
+        <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.3800434165999931</v>
+        <v>0.38102391756409</v>
       </c>
       <c r="P3">
-        <v>0.3800434165999931</v>
+        <v>0.4655560926000913</v>
       </c>
       <c r="Q3">
-        <v>5.581686119969186</v>
+        <v>3.948019349771666</v>
       </c>
       <c r="R3">
-        <v>5.581686119969186</v>
+        <v>35.53217414794499</v>
       </c>
       <c r="S3">
-        <v>0.3800434165999931</v>
+        <v>0.1226244705040276</v>
       </c>
       <c r="T3">
-        <v>0.3800434165999931</v>
+        <v>0.156446309722838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.78379999668461</v>
+        <v>1.166539666666667</v>
       </c>
       <c r="H4">
-        <v>1.78379999668461</v>
+        <v>3.499619</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3218288009004096</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.336041805078951</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5653357613348799</v>
+        <v>0.6595906666666668</v>
       </c>
       <c r="N4">
-        <v>0.5653357613348799</v>
+        <v>1.978772</v>
       </c>
       <c r="O4">
-        <v>0.06866262777056362</v>
+        <v>0.07425863777378852</v>
       </c>
       <c r="P4">
-        <v>0.06866262777056362</v>
+        <v>0.09073331003677852</v>
       </c>
       <c r="Q4">
-        <v>1.00844592919485</v>
+        <v>0.7694386764297779</v>
       </c>
       <c r="R4">
-        <v>1.00844592919485</v>
+        <v>6.924948087868001</v>
       </c>
       <c r="S4">
-        <v>0.06866262777056362</v>
+        <v>0.02389856835123622</v>
       </c>
       <c r="T4">
-        <v>0.06866262777056362</v>
+        <v>0.03049018528554716</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>1.166539666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.499619</v>
+      </c>
+      <c r="I5">
+        <v>0.3218288009004096</v>
+      </c>
+      <c r="J5">
+        <v>0.336041805078951</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.967637</v>
+      </c>
+      <c r="N5">
+        <v>1.935274</v>
+      </c>
+      <c r="O5">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P5">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q5">
+        <v>1.128786943434333</v>
+      </c>
+      <c r="R5">
+        <v>6.772721660606</v>
+      </c>
+      <c r="S5">
+        <v>0.03505983354881485</v>
+      </c>
+      <c r="T5">
+        <v>0.02981994026512503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.998255</v>
+      </c>
+      <c r="H6">
+        <v>5.994764999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5512851632219802</v>
+      </c>
+      <c r="J6">
+        <v>0.5756317049439147</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.87073</v>
+      </c>
+      <c r="N6">
+        <v>7.74146</v>
+      </c>
+      <c r="O6">
+        <v>0.4357780537476825</v>
+      </c>
+      <c r="P6">
+        <v>0.3549718160138305</v>
+      </c>
+      <c r="Q6">
+        <v>7.734705576149999</v>
+      </c>
+      <c r="R6">
+        <v>46.40823345689999</v>
+      </c>
+      <c r="S6">
+        <v>0.240237975488848</v>
+      </c>
+      <c r="T6">
+        <v>0.2043330316590788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.998255</v>
+      </c>
+      <c r="H7">
+        <v>5.994764999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5512851632219802</v>
+      </c>
+      <c r="J7">
+        <v>0.5756317049439147</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.384385</v>
+      </c>
+      <c r="N7">
+        <v>10.153155</v>
+      </c>
+      <c r="O7">
+        <v>0.38102391756409</v>
+      </c>
+      <c r="P7">
+        <v>0.4655560926000913</v>
+      </c>
+      <c r="Q7">
+        <v>6.762864248174998</v>
+      </c>
+      <c r="R7">
+        <v>60.86577823357498</v>
+      </c>
+      <c r="S7">
+        <v>0.2100528325857977</v>
+      </c>
+      <c r="T7">
+        <v>0.2679888473304176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.998255</v>
+      </c>
+      <c r="H8">
+        <v>5.994764999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.5512851632219802</v>
+      </c>
+      <c r="J8">
+        <v>0.5756317049439147</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6595906666666668</v>
+      </c>
+      <c r="N8">
+        <v>1.978772</v>
+      </c>
+      <c r="O8">
+        <v>0.07425863777378852</v>
+      </c>
+      <c r="P8">
+        <v>0.09073331003677852</v>
+      </c>
+      <c r="Q8">
+        <v>1.31803034762</v>
+      </c>
+      <c r="R8">
+        <v>11.86227312858</v>
+      </c>
+      <c r="S8">
+        <v>0.04093768524576491</v>
+      </c>
+      <c r="T8">
+        <v>0.05222896995167563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.998255</v>
+      </c>
+      <c r="H9">
+        <v>5.994764999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5512851632219802</v>
+      </c>
+      <c r="J9">
+        <v>0.5756317049439147</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.967637</v>
+      </c>
+      <c r="N9">
+        <v>1.935274</v>
+      </c>
+      <c r="O9">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P9">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q9">
+        <v>1.933585473435</v>
+      </c>
+      <c r="R9">
+        <v>11.60151284061</v>
+      </c>
+      <c r="S9">
+        <v>0.06005666990156958</v>
+      </c>
+      <c r="T9">
+        <v>0.05108085600274265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.78379999668461</v>
-      </c>
-      <c r="H5">
-        <v>1.78379999668461</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.67450219459984</v>
-      </c>
-      <c r="N5">
-        <v>0.67450219459984</v>
-      </c>
-      <c r="O5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="P5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="Q5">
-        <v>1.203177012490957</v>
-      </c>
-      <c r="R5">
-        <v>1.203177012490957</v>
-      </c>
-      <c r="S5">
-        <v>0.08192139306539152</v>
-      </c>
-      <c r="T5">
-        <v>0.08192139306539152</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.4599265</v>
+      </c>
+      <c r="H10">
+        <v>0.919853</v>
+      </c>
+      <c r="I10">
+        <v>0.1268860358776103</v>
+      </c>
+      <c r="J10">
+        <v>0.08832648997713419</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.87073</v>
+      </c>
+      <c r="N10">
+        <v>7.74146</v>
+      </c>
+      <c r="O10">
+        <v>0.4357780537476825</v>
+      </c>
+      <c r="P10">
+        <v>0.3549718160138305</v>
+      </c>
+      <c r="Q10">
+        <v>1.780251301345</v>
+      </c>
+      <c r="R10">
+        <v>7.12100520538</v>
+      </c>
+      <c r="S10">
+        <v>0.05529414976250362</v>
+      </c>
+      <c r="T10">
+        <v>0.03135341454931072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.4599265</v>
+      </c>
+      <c r="H11">
+        <v>0.919853</v>
+      </c>
+      <c r="I11">
+        <v>0.1268860358776103</v>
+      </c>
+      <c r="J11">
+        <v>0.08832648997713419</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.384385</v>
+      </c>
+      <c r="N11">
+        <v>10.153155</v>
+      </c>
+      <c r="O11">
+        <v>0.38102391756409</v>
+      </c>
+      <c r="P11">
+        <v>0.4655560926000913</v>
+      </c>
+      <c r="Q11">
+        <v>1.5565683477025</v>
+      </c>
+      <c r="R11">
+        <v>9.339410086214999</v>
+      </c>
+      <c r="S11">
+        <v>0.04834661447426475</v>
+      </c>
+      <c r="T11">
+        <v>0.04112093554683572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.4599265</v>
+      </c>
+      <c r="H12">
+        <v>0.919853</v>
+      </c>
+      <c r="I12">
+        <v>0.1268860358776103</v>
+      </c>
+      <c r="J12">
+        <v>0.08832648997713419</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6595906666666668</v>
+      </c>
+      <c r="N12">
+        <v>1.978772</v>
+      </c>
+      <c r="O12">
+        <v>0.07425863777378852</v>
+      </c>
+      <c r="P12">
+        <v>0.09073331003677852</v>
+      </c>
+      <c r="Q12">
+        <v>0.3033632267526667</v>
+      </c>
+      <c r="R12">
+        <v>1.820179360516</v>
+      </c>
+      <c r="S12">
+        <v>0.009422384176787396</v>
+      </c>
+      <c r="T12">
+        <v>0.008014154799555726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.4599265</v>
+      </c>
+      <c r="H13">
+        <v>0.919853</v>
+      </c>
+      <c r="I13">
+        <v>0.1268860358776103</v>
+      </c>
+      <c r="J13">
+        <v>0.08832648997713419</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.967637</v>
+      </c>
+      <c r="N13">
+        <v>1.935274</v>
+      </c>
+      <c r="O13">
+        <v>0.1089393909144389</v>
+      </c>
+      <c r="P13">
+        <v>0.08873878134929972</v>
+      </c>
+      <c r="Q13">
+        <v>0.4450418986805</v>
+      </c>
+      <c r="R13">
+        <v>1.780167594722</v>
+      </c>
+      <c r="S13">
+        <v>0.01382288746405451</v>
+      </c>
+      <c r="T13">
+        <v>0.007837985081432023</v>
       </c>
     </row>
   </sheetData>
